--- a/Mappings/MaritalStatus - STU3.xlsx
+++ b/Mappings/MaritalStatus - STU3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="26835" windowHeight="9540"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="26838" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="MaritalStatus 2017" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Concept</t>
   </si>
@@ -160,13 +165,41 @@
   </si>
   <si>
     <t>1. changed valueset</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>SNOMED CT 125680007  Marital status</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A person’s marital status according to the terms and definition in the Dutch civil code.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -184,17 +217,20 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -208,9 +244,29 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +291,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -299,11 +360,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -354,10 +416,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,12 +440,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,9 +523,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,6 +575,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q4"/>
+  <dimension ref="B2:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -671,13 +783,13 @@
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="75" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.1171875" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -745,7 +857,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
         <v>14</v>
@@ -783,9 +895,120 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O4" location="MaritalStatusCodelist!A1" display="MaritalStatusCodelist"/>
+    <hyperlink ref="O7" location="MaritalStatusCodelist!A1" display="MaritalStatusCodelist"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -799,7 +1022,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -808,18 +1031,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
@@ -836,7 +1059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
@@ -853,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
@@ -870,7 +1093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
@@ -887,7 +1110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
@@ -904,7 +1127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C9" s="12" t="s">
         <v>44</v>
       </c>
@@ -936,13 +1159,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF08303C7721984997541DFCD7BD9C9E" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d6bf6747f583050198e7a97fc4fe306">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ef0175d4-d2b9-429e-8cac-5bbcd11e2011" xmlns:ns3="d7280b85-8377-40c8-b3f2-b82e641139db" xmlns:ns4="3238767e-bcb1-4e59-b54f-a4988f593f4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33ec68bd1aef5fdd141a96ed4c01f89d" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1169,15 +1401,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1188,13 +1411,49 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223C8D0E-0A66-474A-9789-130C485ED86F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE0C424-BC06-4A5D-8447-DAF7773D9184}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE0C424-BC06-4A5D-8447-DAF7773D9184}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223C8D0E-0A66-474A-9789-130C485ED86F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ef0175d4-d2b9-429e-8cac-5bbcd11e2011"/>
+    <ds:schemaRef ds:uri="d7280b85-8377-40c8-b3f2-b82e641139db"/>
+    <ds:schemaRef ds:uri="3238767e-bcb1-4e59-b54f-a4988f593f4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3860AFC-39D4-4EDC-A130-4037124AC488}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3860AFC-39D4-4EDC-A130-4037124AC488}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d7280b85-8377-40c8-b3f2-b82e641139db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef0175d4-d2b9-429e-8cac-5bbcd11e2011"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3238767e-bcb1-4e59-b54f-a4988f593f4b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mappings/MaritalStatus - STU3.xlsx
+++ b/Mappings/MaritalStatus - STU3.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nicitz-stu3-zibs2017\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="26838" windowHeight="9540"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="26835" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="MaritalStatus 2017" sheetId="1" r:id="rId1"/>
     <sheet name="Valuesets 2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Concept</t>
   </si>
@@ -168,9 +167,6 @@
   </si>
   <si>
     <t>Observation</t>
-  </si>
-  <si>
-    <t>SNOMED CT 125680007  Marital status</t>
   </si>
   <si>
     <t>Observation.code.coding.code</t>
@@ -193,6 +189,9 @@
       </rPr>
       <t>A person’s marital status according to the terms and definition in the Dutch civil code.</t>
     </r>
+  </si>
+  <si>
+    <t>SNOMED CT 224083004 |Marital or partnership status (observable entity)|</t>
   </si>
 </sst>
 </file>
@@ -416,23 +415,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,7 +447,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,23 +522,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -575,23 +557,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -768,13 +733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q7"/>
+  <dimension ref="B2:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -783,13 +748,13 @@
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="75" customWidth="1"/>
-    <col min="14" max="14" width="13.1171875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="16.5859375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -857,7 +822,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
         <v>14</v>
@@ -895,122 +860,121 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="15" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8" t="s">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
-    <row r="7" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+    <row r="8" spans="2:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="O8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="Q8" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O4" location="MaritalStatusCodelist!A1" display="MaritalStatusCodelist"/>
-    <hyperlink ref="O7" location="MaritalStatusCodelist!A1" display="MaritalStatusCodelist"/>
+    <hyperlink ref="O8" location="MaritalStatusCodelist!A1" display="MaritalStatusCodelist"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1022,7 +986,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1031,18 +995,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
@@ -1076,7 +1040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
@@ -1093,7 +1057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1110,7 +1074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
@@ -1127,7 +1091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="12" t="s">
         <v>44</v>
       </c>
@@ -1153,25 +1117,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,18 +1354,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE0C424-BC06-4A5D-8447-DAF7773D9184}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3860AFC-39D4-4EDC-A130-4037124AC488}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d7280b85-8377-40c8-b3f2-b82e641139db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef0175d4-d2b9-429e-8cac-5bbcd11e2011"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3238767e-bcb1-4e59-b54f-a4988f593f4b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1440,20 +1403,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3860AFC-39D4-4EDC-A130-4037124AC488}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE0C424-BC06-4A5D-8447-DAF7773D9184}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d7280b85-8377-40c8-b3f2-b82e641139db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef0175d4-d2b9-429e-8cac-5bbcd11e2011"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="3238767e-bcb1-4e59-b54f-a4988f593f4b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>